--- a/notes/ORM.xlsx
+++ b/notes/ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12630" windowHeight="11790"/>
+    <workbookView windowWidth="12480" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
   <si>
     <t>操作类型</t>
   </si>
@@ -88,6 +88,9 @@
     <t>条件查询多条数据</t>
   </si>
   <si>
+    <t>{{ 取出实例.属性 }}</t>
+  </si>
+  <si>
     <t>exclude()</t>
   </si>
   <si>
@@ -106,7 +109,7 @@
     <t>QuerySet内存字典</t>
   </si>
   <si>
-    <t>{{ 单个字典.键名 }}</t>
+    <t>{{ 取出字典.键名 }}</t>
   </si>
   <si>
     <t>values_list()</t>
@@ -115,7 +118,7 @@
     <t>QuerySet内存元组</t>
   </si>
   <si>
-    <t>{{ 单个元组.索引 }}</t>
+    <t>{{ 取出元组.索引 }}</t>
   </si>
   <si>
     <t>order_by()</t>
@@ -130,7 +133,7 @@
     <t>QuerySet有序实例组</t>
   </si>
   <si>
-    <t xml:space="preserve">{{ 单个实例.属性 }} </t>
+    <t xml:space="preserve">{{ 取出实例.属性 }} </t>
   </si>
   <si>
     <t>实例</t>
@@ -214,6 +217,24 @@
     <t>是否在指定区间范围内</t>
   </si>
   <si>
+    <t>字段__year</t>
+  </si>
+  <si>
+    <t>查找在指定年份内的数据</t>
+  </si>
+  <si>
+    <t>字段__month</t>
+  </si>
+  <si>
+    <t>查找在指定月份内的数据</t>
+  </si>
+  <si>
+    <t>字段__day</t>
+  </si>
+  <si>
+    <t>查找在指定日子内的数据</t>
+  </si>
+  <si>
     <t>聚合查询</t>
   </si>
   <si>
@@ -229,6 +250,9 @@
     <t>字典</t>
   </si>
   <si>
+    <t>{{ 字典名.索引.键名}}</t>
+  </si>
+  <si>
     <t>分组查询</t>
   </si>
   <si>
@@ -239,6 +263,9 @@
   </si>
   <si>
     <t>修改</t>
+  </si>
+  <si>
+    <t>实例对象</t>
   </si>
   <si>
     <t>update()</t>
@@ -268,9 +295,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -293,50 +320,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -353,7 +336,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +358,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +384,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,6 +434,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -431,7 +450,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +479,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,79 +629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,85 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,31 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,32 +718,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +752,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +805,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1261,12 +1288,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1415,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1429,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1438,13 +1465,13 @@
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1458,22 +1485,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1487,22 +1514,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1516,22 +1543,22 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1542,22 +1569,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="6"/>
@@ -1569,17 +1596,17 @@
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
@@ -1592,23 +1619,23 @@
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1619,23 +1646,23 @@
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1646,23 +1673,23 @@
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1673,23 +1700,23 @@
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1700,23 +1727,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1727,23 +1754,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1754,23 +1781,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1781,23 +1808,23 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1808,23 +1835,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1832,55 +1859,53 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1888,50 +1913,56 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="10"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="10"/>
@@ -1941,7 +1972,7 @@
         <v>79</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>80</v>
@@ -1950,24 +1981,40 @@
         <v>11</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="10"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
@@ -1975,12 +2022,24 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
@@ -1988,12 +2047,24 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
@@ -2286,6 +2357,45 @@
       <c r="J50" s="6"/>
       <c r="K50" s="10"/>
     </row>
+    <row r="51" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/notes/ORM.xlsx
+++ b/notes/ORM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>操作类型</t>
   </si>
@@ -73,24 +73,24 @@
     <t>QuerySet实例组</t>
   </si>
   <si>
+    <t>{{ 取出实例.属性 }}</t>
+  </si>
+  <si>
+    <t>get()</t>
+  </si>
+  <si>
+    <t>条件查询单条数据</t>
+  </si>
+  <si>
     <t>{{ 单个实例.属性 }}</t>
   </si>
   <si>
-    <t>get()</t>
-  </si>
-  <si>
-    <t>条件查询单条数据</t>
-  </si>
-  <si>
     <t>filter()</t>
   </si>
   <si>
     <t>条件查询多条数据</t>
   </si>
   <si>
-    <t>{{ 取出实例.属性 }}</t>
-  </si>
-  <si>
     <t>exclude()</t>
   </si>
   <si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>{{ 取出元组.索引 }}</t>
+  </si>
+  <si>
+    <t>查询排序</t>
   </si>
   <si>
     <t>order_by()</t>
@@ -294,10 +297,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -320,6 +323,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -328,7 +354,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,122 +461,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,55 +482,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,37 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,85 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,21 +692,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -718,13 +706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,9 +747,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,21 +788,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -793,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,133 +808,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,10 +1293,10 @@
   <sheetPr/>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1413,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1427,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -1436,13 +1439,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1471,7 +1474,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1537,28 +1540,28 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1569,22 +1572,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="6"/>
@@ -1596,17 +1599,17 @@
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
@@ -1619,23 +1622,23 @@
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1646,23 +1649,23 @@
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1673,23 +1676,23 @@
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1700,23 +1703,23 @@
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1727,23 +1730,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1754,23 +1757,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1781,23 +1784,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1808,23 +1811,23 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1835,23 +1838,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1862,23 +1865,23 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1889,23 +1892,23 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1916,23 +1919,23 @@
         <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1940,28 +1943,28 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1969,28 +1972,28 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A25" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1998,13 +2001,13 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>11</v>
@@ -2013,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="8"/>
@@ -2023,22 +2026,22 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="8"/>
@@ -2048,22 +2051,22 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="8"/>

--- a/notes/ORM.xlsx
+++ b/notes/ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12480" windowHeight="12150"/>
+    <workbookView windowWidth="12450" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
   <si>
     <t>操作类型</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>{{ 字典名.索引.键名}}</t>
+  </si>
+  <si>
+    <t>{{ xx.0.name}}</t>
   </si>
   <si>
     <t>分组查询</t>
@@ -297,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -323,9 +326,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +336,28 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,36 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -399,11 +393,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,8 +409,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,8 +440,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,24 +463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,61 +485,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,121 +659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,17 +709,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,35 +729,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,8 +751,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,9 +1297,9 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,6 +1311,7 @@
     <col min="6" max="6" width="35.75" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:11">
@@ -1966,19 +1970,21 @@
       <c r="H24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="10"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A25" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
@@ -1987,7 +1993,7 @@
         <v>76</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>18</v>
@@ -2001,13 +2007,13 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>11</v>
@@ -2016,7 +2022,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="8"/>
@@ -2026,13 +2032,13 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>11</v>
@@ -2041,7 +2047,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="8"/>
@@ -2051,13 +2057,13 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
@@ -2066,7 +2072,7 @@
         <v>43</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="8"/>

--- a/notes/ORM.xlsx
+++ b/notes/ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12450" windowHeight="11790"/>
+    <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
   <si>
     <t>操作类型</t>
   </si>
@@ -170,6 +170,23 @@
   </si>
   <si>
     <t>包含指定值，同like '%w%'</t>
+  </si>
+  <si>
+    <t>字段__icontains</t>
+  </si>
+  <si>
+    <r>
+      <t>包含指定值，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忽略大小写</t>
+    </r>
   </si>
   <si>
     <t>字段__startswith</t>
@@ -300,12 +317,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,31 +343,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,14 +373,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +401,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -393,9 +433,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,19 +449,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,8 +464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,25 +481,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -485,13 +508,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,25 +640,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,133 +670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,6 +717,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -712,8 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +765,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -744,15 +796,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,26 +814,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -799,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,16 +834,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,115 +852,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,12 +1317,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1615,8 +1638,12 @@
       <c r="F11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="10"/>
@@ -1947,95 +1974,97 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="10"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A25" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="10"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="10"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>88</v>
@@ -2044,7 +2073,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>89</v>
@@ -2057,13 +2086,13 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
@@ -2072,7 +2101,7 @@
         <v>43</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="8"/>
@@ -2081,12 +2110,24 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
@@ -2405,6 +2446,19 @@
       <c r="J53" s="6"/>
       <c r="K53" s="10"/>
     </row>
+    <row r="54" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
